--- a/DRYé.xlsx
+++ b/DRYé.xlsx
@@ -31,12 +31,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -57,13 +63,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -540,2102 +548,2102 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>PCAL20</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="5" t="n">
         <v>45624.375</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="4" t="n">
         <v>89</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="4" t="n">
         <v>3677</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="4" t="n">
         <v>3656</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.00525</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2024-11-28 07:00:18</t>
+      <c r="G4" s="4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-28 11:52:00</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>PGE487</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="5" t="n">
         <v>45624.425</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="4" t="n">
         <v>77</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="4" t="n">
         <v>77</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2024-11-28 07:00:18</t>
+      <c r="F5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-28 11:52:00</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>PGE490</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="5" t="n">
         <v>45624.425</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4" t="n">
         <v>559</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="4" t="n">
         <v>559</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2024-11-28 07:00:18</t>
+      <c r="F6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-28 11:52:00</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>PGE492</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="5" t="n">
         <v>45624.425</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="4" t="n">
         <v>357</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="4" t="n">
         <v>357</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2024-11-28 07:00:18</t>
+      <c r="F7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-28 11:52:00</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>PGE497</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="5" t="n">
         <v>45624.425</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="4" t="n">
         <v>191</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="4" t="n">
         <v>141</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.0125</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2024-11-28 07:01:03</t>
+      <c r="G8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-29 06:52:00</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>PGE499</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="5" t="n">
         <v>45624.425</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="4" t="n">
         <v>157</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="4" t="n">
         <v>157</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2024-11-28 07:01:03</t>
+      <c r="F9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-29 06:52:00</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>PWAG38</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="5" t="n">
         <v>45624.425</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="4" t="n">
         <v>273</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="4" t="n">
         <v>273</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2024-11-28 07:01:03</t>
+      <c r="F10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-29 06:52:00</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>PWAG39</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="5" t="n">
         <v>45624.425</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="4" t="n">
         <v>116</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="4" t="n">
         <v>116</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2024-11-28 07:01:03</t>
+      <c r="F11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-29 06:52:00</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>PWAG40</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="5" t="n">
         <v>45624.425</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="4" t="n">
         <v>224</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="4" t="n">
         <v>224</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2024-11-28 07:01:03</t>
+      <c r="F12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-29 06:52:00</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>PWAG41</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="5" t="n">
         <v>45624.425</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="4" t="n">
         <v>137</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="4" t="n">
         <v>137</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2024-11-28 07:01:03</t>
+      <c r="F13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-29 06:52:00</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>PWAG43</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="5" t="n">
         <v>45624.425</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="4" t="n">
         <v>243</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="4" t="n">
         <v>243</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2024-11-28 07:01:03</t>
+      <c r="F14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-29 06:52:00</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>PWAG44</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="5" t="n">
         <v>45624.425</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2024-11-28 07:01:03</t>
+      <c r="F15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-29 06:52:00</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>PWAG57</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="5" t="n">
         <v>45624.425</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="4" t="n">
         <v>264</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="4" t="n">
         <v>264</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2024-11-28 07:01:03</t>
+      <c r="F16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-29 06:52:00</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>PWAG97</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="5" t="n">
         <v>45624.425</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="4" t="n">
         <v>415</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="4" t="n">
         <v>415</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2024-11-28 07:01:03</t>
+      <c r="F17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-29 06:52:00</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>PWAG99</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="5" t="n">
         <v>45624.425</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="4" t="n">
         <v>69</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="4" t="n">
         <v>69</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2024-11-28 07:01:03</t>
+      <c r="F18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-29 06:52:00</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>PKUN02</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="5" t="n">
         <v>45624.45902777778</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="4" t="n">
         <v>98</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="4" t="n">
         <v>4446</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="4" t="n">
         <v>4182</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="4" t="n">
         <v>264</v>
       </c>
-      <c r="G19" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2024-11-28 07:05:01</t>
+      <c r="G19" s="4" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="H19" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-01 21:20:00</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>PFK779</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="5" t="n">
         <v>45624.55208333334</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="4" t="n">
         <v>548</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="4" t="n">
         <v>548</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2024-11-28 07:05:01</t>
+      <c r="F20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-02 05:20:00</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>PGE488</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="5" t="n">
         <v>45624.55208333334</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="4" t="n">
         <v>239</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="4" t="n">
         <v>239</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2024-11-28 07:05:01</t>
+      <c r="F21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-02 05:20:00</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>PGE489</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="5" t="n">
         <v>45624.55208333334</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="4" t="n">
         <v>179</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="4" t="n">
         <v>179</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2024-11-28 07:05:01</t>
+      <c r="F22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-02 05:20:00</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>PGE494</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="5" t="n">
         <v>45624.55208333334</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="4" t="n">
         <v>365</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="4" t="n">
         <v>315</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="G23" t="n">
-        <v>0.0125</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2024-11-28 07:05:46</t>
+      <c r="G23" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-02 17:00:00</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>PXP252</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="5" t="n">
         <v>45624.58541666667</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="4" t="n">
         <v>93</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="4" t="n">
         <v>3200</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="4" t="n">
         <v>1412</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="4" t="n">
         <v>1788</v>
       </c>
-      <c r="G24" t="n">
-        <v>0.447</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2024-11-28 07:42:35</t>
+      <c r="G24" s="4" t="n">
+        <v>357.6</v>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>2024-12-17 22:36:00</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>PKUN04</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="5" t="n">
         <v>45624.62569444445</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="4" t="n">
         <v>84</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="4" t="n">
         <v>3682</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="4" t="n">
         <v>144</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="4" t="n">
         <v>3538</v>
       </c>
-      <c r="G25" t="n">
-        <v>0.8845</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2024-11-28 08:35:39</t>
+      <c r="G25" s="4" t="n">
+        <v>707.6</v>
+      </c>
+      <c r="H25" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-16 18:12:00</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>PXP253</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="5" t="n">
         <v>45624.71041666667</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="4" t="n">
         <v>41</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="4" t="n">
         <v>1322</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="4" t="n">
         <v>1310</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.3275</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2024-11-28 08:55:18</t>
+      <c r="G26" s="4" t="n">
+        <v>262</v>
+      </c>
+      <c r="H26" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-28 00:12:00</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>PGO134</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="5" t="n">
         <v>45624.76180555556</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="4" t="n">
         <v>1641</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4" t="n">
         <v>1641</v>
       </c>
-      <c r="G27" t="n">
-        <v>0.41025</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2024-11-28 09:19:55</t>
+      <c r="G27" s="4" t="n">
+        <v>328.2</v>
+      </c>
+      <c r="H27" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-11 02:04:00</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>PGO135</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="5" t="n">
         <v>45624.7625</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="4" t="n">
         <v>459</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="4" t="n">
         <v>436</v>
       </c>
-      <c r="G28" t="n">
-        <v>0.109</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2024-11-28 09:26:28</t>
+      <c r="G28" s="4" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-15 02:56:00</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>PXP273</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="5" t="n">
         <v>45625.31458333333</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="4" t="n">
         <v>1292</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E29" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="n">
         <v>1292</v>
       </c>
-      <c r="G29" t="n">
-        <v>0.323</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2024-11-28 09:45:51</t>
+      <c r="G29" s="4" t="n">
+        <v>258.4</v>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-26 07:00:00</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>PND166</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="5" t="n">
         <v>45625.31666666667</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="4" t="n">
         <v>78</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="4" t="n">
         <v>5422</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="4" t="n">
         <v>5335</v>
       </c>
-      <c r="G30" t="n">
-        <v>1.33375</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2024-11-28 11:35:52</t>
+      <c r="G30" s="4" t="n">
+        <v>1067</v>
+      </c>
+      <c r="H30" s="4" t="inlineStr">
+        <is>
+          <t>2025-04-12 03:40:00</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>PKUN33</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="5" t="n">
         <v>45625.33402777778</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="4" t="n">
         <v>82</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="4" t="n">
         <v>4467</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" s="4" t="n">
         <v>360</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" s="4" t="n">
         <v>4107</v>
       </c>
-      <c r="G31" t="n">
-        <v>1.02675</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2024-11-28 13:37:28</t>
+      <c r="G31" s="4" t="n">
+        <v>821.4</v>
+      </c>
+      <c r="H31" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-16 18:44:00</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>PKUN59</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="5" t="n">
         <v>45625.33611111111</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="4" t="n">
         <v>1036</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4" t="n">
         <v>1036</v>
       </c>
-      <c r="G32" t="n">
-        <v>0.259</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2024-11-28 13:53:01</t>
+      <c r="G32" s="4" t="n">
+        <v>207.2</v>
+      </c>
+      <c r="H32" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-25 17:56:00</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>PFK786</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="5" t="n">
         <v>45625.34027777778</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="4" t="n">
         <v>605</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4" t="n">
         <v>605</v>
       </c>
-      <c r="G33" t="n">
-        <v>0.15125</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2024-11-28 14:02:05</t>
+      <c r="G33" s="4" t="n">
+        <v>121</v>
+      </c>
+      <c r="H33" s="4" t="inlineStr">
+        <is>
+          <t>2025-05-31 02:56:00</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>PFK790</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="5" t="n">
         <v>45625.34027777778</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="4" t="n">
         <v>645</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E34" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4" t="n">
         <v>645</v>
       </c>
-      <c r="G34" t="n">
-        <v>0.16125</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2024-11-28 14:11:46</t>
+      <c r="G34" s="4" t="n">
+        <v>129</v>
+      </c>
+      <c r="H34" s="4" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:36:00</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>PFK793</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="5" t="n">
         <v>45625.34027777778</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="4" t="n">
         <v>314</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E35" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4" t="n">
         <v>314</v>
       </c>
-      <c r="G35" t="n">
-        <v>0.0785</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2024-11-28 14:16:28</t>
+      <c r="G35" s="4" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="H35" s="4" t="inlineStr">
+        <is>
+          <t>2025-06-08 20:24:00</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>PFK795</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="5" t="n">
         <v>45625.34027777778</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="4" t="n">
         <v>671</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4" t="n">
         <v>671</v>
       </c>
-      <c r="G36" t="n">
-        <v>0.16775</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2024-11-28 14:26:32</t>
+      <c r="G36" s="4" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="H36" s="4" t="inlineStr">
+        <is>
+          <t>2025-06-14 18:36:00</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>PCAL29</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="5" t="n">
         <v>45625.375</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="4" t="n">
         <v>3158</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E37" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4" t="n">
         <v>3158</v>
       </c>
-      <c r="G37" t="n">
-        <v>0.7895</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2024-11-28 15:13:54</t>
+      <c r="G37" s="4" t="n">
+        <v>631.6</v>
+      </c>
+      <c r="H37" s="4" t="inlineStr">
+        <is>
+          <t>2025-07-11 10:12:00</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="4" t="inlineStr">
         <is>
           <t>PFK789</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="5" t="n">
         <v>45625.425</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="4" t="n">
         <v>335</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E38" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4" t="n">
         <v>335</v>
       </c>
-      <c r="G38" t="n">
-        <v>0.08375</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2024-11-28 15:18:56</t>
+      <c r="G38" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="H38" s="4" t="inlineStr">
+        <is>
+          <t>2025-07-14 14:42:00</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>PGE504</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="5" t="n">
         <v>45625.425</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="4" t="n">
         <v>872</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4" t="n">
         <v>872</v>
       </c>
-      <c r="G39" t="n">
-        <v>0.218</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2024-11-28 15:32:01</t>
+      <c r="G39" s="4" t="n">
+        <v>174.4</v>
+      </c>
+      <c r="H39" s="4" t="inlineStr">
+        <is>
+          <t>2025-07-22 05:06:00</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="4" t="inlineStr">
         <is>
           <t>PGE507</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="5" t="n">
         <v>45625.425</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="4" t="n">
         <v>180</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E40" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4" t="n">
         <v>180</v>
       </c>
-      <c r="G40" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2024-11-28 15:34:43</t>
+      <c r="G40" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="H40" s="4" t="inlineStr">
+        <is>
+          <t>2025-07-24 02:46:00</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="4" t="inlineStr">
         <is>
           <t>PGE509</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="5" t="n">
         <v>45625.425</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="4" t="n">
         <v>1171</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E41" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4" t="n">
         <v>1171</v>
       </c>
-      <c r="G41" t="n">
-        <v>0.29275</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2024-11-28 15:52:17</t>
+      <c r="G41" s="4" t="n">
+        <v>234.2</v>
+      </c>
+      <c r="H41" s="4" t="inlineStr">
+        <is>
+          <t>2025-08-03 06:38:00</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="4" t="inlineStr">
         <is>
           <t>PGE511</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="5" t="n">
         <v>45625.425</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="4" t="n">
         <v>565</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42" s="4" t="n">
         <v>555</v>
       </c>
-      <c r="G42" t="n">
-        <v>0.13875</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2024-11-28 16:00:36</t>
+      <c r="G42" s="4" t="n">
+        <v>111</v>
+      </c>
+      <c r="H42" s="4" t="inlineStr">
+        <is>
+          <t>2025-08-08 07:18:00</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="4" t="inlineStr">
         <is>
           <t>PGE518</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="5" t="n">
         <v>45625.425</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="4" t="n">
         <v>895</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E43" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4" t="n">
         <v>895</v>
       </c>
-      <c r="G43" t="n">
-        <v>0.22375</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2024-11-28 16:14:02</t>
+      <c r="G43" s="4" t="n">
+        <v>179</v>
+      </c>
+      <c r="H43" s="4" t="inlineStr">
+        <is>
+          <t>2025-08-16 03:58:00</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="4" t="inlineStr">
         <is>
           <t>PGE519</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="5" t="n">
         <v>45625.425</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="4" t="n">
         <v>403</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E44" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4" t="n">
         <v>403</v>
       </c>
-      <c r="G44" t="n">
-        <v>0.10075</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2024-11-28 16:20:04</t>
+      <c r="G44" s="4" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="H44" s="4" t="inlineStr">
+        <is>
+          <t>2025-08-19 22:14:00</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="4" t="inlineStr">
         <is>
           <t>PGE520</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="5" t="n">
         <v>45625.425</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="4" t="n">
         <v>639</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E45" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4" t="n">
         <v>639</v>
       </c>
-      <c r="G45" t="n">
-        <v>0.15975</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2024-11-28 16:29:39</t>
+      <c r="G45" s="4" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="H45" s="4" t="inlineStr">
+        <is>
+          <t>2025-08-25 14:02:00</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="4" t="inlineStr">
         <is>
           <t>PGE521</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="5" t="n">
         <v>45625.425</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="4" t="n">
         <v>206</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E46" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4" t="n">
         <v>206</v>
       </c>
-      <c r="G46" t="n">
-        <v>0.0515</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2024-11-28 16:32:45</t>
+      <c r="G46" s="4" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="H46" s="4" t="inlineStr">
+        <is>
+          <t>2025-08-27 15:14:00</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="4" t="inlineStr">
         <is>
           <t>PGE528</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="5" t="n">
         <v>45625.425</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="4" t="n">
         <v>590</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E47" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4" t="n">
         <v>590</v>
       </c>
-      <c r="G47" t="n">
-        <v>0.1475</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2024-11-28 16:41:36</t>
+      <c r="G47" s="4" t="n">
+        <v>118</v>
+      </c>
+      <c r="H47" s="4" t="inlineStr">
+        <is>
+          <t>2025-09-01 21:14:00</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="4" t="inlineStr">
         <is>
           <t>PGE529</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="5" t="n">
         <v>45625.425</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="4" t="n">
         <v>571</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E48" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4" t="n">
         <v>571</v>
       </c>
-      <c r="G48" t="n">
-        <v>0.14275</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2024-11-28 16:50:10</t>
+      <c r="G48" s="4" t="n">
+        <v>114.2</v>
+      </c>
+      <c r="H48" s="4" t="inlineStr">
+        <is>
+          <t>2025-09-06 23:26:00</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="4" t="inlineStr">
         <is>
           <t>PGE535</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="5" t="n">
         <v>45625.425</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="4" t="n">
         <v>282</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E49" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4" t="n">
         <v>282</v>
       </c>
-      <c r="G49" t="n">
-        <v>0.07049999999999999</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2024-11-28 16:54:24</t>
+      <c r="G49" s="4" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="H49" s="4" t="inlineStr">
+        <is>
+          <t>2025-09-09 15:50:00</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="4" t="inlineStr">
         <is>
           <t>PWAG65</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="5" t="n">
         <v>45625.425</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="4" t="n">
         <v>296</v>
       </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="E50" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4" t="n">
         <v>296</v>
       </c>
-      <c r="G50" t="n">
-        <v>0.074</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2024-11-28 16:58:50</t>
+      <c r="G50" s="4" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="H50" s="4" t="inlineStr">
+        <is>
+          <t>2025-09-12 11:02:00</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="4" t="inlineStr">
         <is>
           <t>PWAG66</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="5" t="n">
         <v>45625.425</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="4" t="n">
         <v>232</v>
       </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="E51" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4" t="n">
         <v>232</v>
       </c>
-      <c r="G51" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2024-11-28 17:02:19</t>
+      <c r="G51" s="4" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="H51" s="4" t="inlineStr">
+        <is>
+          <t>2025-09-14 18:26:00</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="4" t="inlineStr">
         <is>
           <t>PWAG67</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="5" t="n">
         <v>45625.425</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="4" t="n">
         <v>265</v>
       </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
+      <c r="E52" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4" t="n">
         <v>265</v>
       </c>
-      <c r="G52" t="n">
-        <v>0.06625</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2024-11-28 17:06:17</t>
+      <c r="G52" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="H52" s="4" t="inlineStr">
+        <is>
+          <t>2025-09-17 07:26:00</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="4" t="inlineStr">
         <is>
           <t>PWAG68</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="5" t="n">
         <v>45625.425</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="4" t="n">
         <v>151</v>
       </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
+      <c r="E53" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4" t="n">
         <v>151</v>
       </c>
-      <c r="G53" t="n">
-        <v>0.03775</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2024-11-28 17:08:33</t>
+      <c r="G53" s="4" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="H53" s="4" t="inlineStr">
+        <is>
+          <t>2025-09-18 23:18:00</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="4" t="inlineStr">
         <is>
           <t>PWAG71</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="5" t="n">
         <v>45625.425</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="4" t="n">
         <v>643</v>
       </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="E54" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4" t="n">
         <v>643</v>
       </c>
-      <c r="G54" t="n">
-        <v>0.16075</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2024-11-28 17:18:12</t>
+      <c r="G54" s="4" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="H54" s="4" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:54:00</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="4" t="inlineStr">
         <is>
           <t>PWAG77</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="5" t="n">
         <v>45625.425</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="4" t="n">
         <v>106</v>
       </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
+      <c r="E55" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4" t="n">
         <v>106</v>
       </c>
-      <c r="G55" t="n">
-        <v>0.0265</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2024-11-28 17:19:47</t>
+      <c r="G55" s="4" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="H55" s="4" t="inlineStr">
+        <is>
+          <t>2025-09-25 21:06:00</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="4" t="inlineStr">
         <is>
           <t>PWAG78</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="5" t="n">
         <v>45625.425</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="4" t="n">
         <v>327</v>
       </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
+      <c r="E56" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4" t="n">
         <v>327</v>
       </c>
-      <c r="G56" t="n">
-        <v>0.08175</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2024-11-28 17:24:42</t>
+      <c r="G56" s="4" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="H56" s="4" t="inlineStr">
+        <is>
+          <t>2025-09-28 22:30:00</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="4" t="inlineStr">
         <is>
           <t>PWAG79</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="5" t="n">
         <v>45625.425</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="4" t="n">
         <v>475</v>
       </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
+      <c r="E57" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4" t="n">
         <v>475</v>
       </c>
-      <c r="G57" t="n">
-        <v>0.11875</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2024-11-28 17:31:49</t>
+      <c r="G57" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="H57" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-03 05:30:00</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="4" t="inlineStr">
         <is>
           <t>PWAG84</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="5" t="n">
         <v>45625.425</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="4" t="n">
         <v>327</v>
       </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
+      <c r="E58" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4" t="n">
         <v>327</v>
       </c>
-      <c r="G58" t="n">
-        <v>0.08175</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2024-11-28 17:36:43</t>
+      <c r="G58" s="4" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="H58" s="4" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:34:00</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="4" t="inlineStr">
         <is>
           <t>PKUN23</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="5" t="n">
         <v>45625.45902777778</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" s="4" t="n">
         <v>108</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="4" t="n">
         <v>6104</v>
       </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
+      <c r="E59" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4" t="n">
         <v>6104</v>
       </c>
-      <c r="G59" t="n">
-        <v>1.526</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2024-11-28 19:08:17</t>
+      <c r="G59" s="4" t="n">
+        <v>1220.8</v>
+      </c>
+      <c r="H59" s="4" t="inlineStr">
+        <is>
+          <t>2025-11-26 14:52:00</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="4" t="inlineStr">
         <is>
           <t>PXP277</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="5" t="n">
         <v>45625.50208333333</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="4" t="n">
         <v>4706</v>
       </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
+      <c r="E60" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4" t="n">
         <v>4706</v>
       </c>
-      <c r="G60" t="n">
-        <v>1.1765</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2024-11-28 20:18:52</t>
+      <c r="G60" s="4" t="n">
+        <v>941.2</v>
+      </c>
+      <c r="H60" s="4" t="inlineStr">
+        <is>
+          <t>2026-01-05 04:04:00</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="4" t="inlineStr">
         <is>
           <t>PFK796</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="5" t="n">
         <v>45625.55208333334</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="4" t="n">
         <v>369</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61" s="4" t="n">
         <v>163</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61" s="4" t="n">
         <v>206</v>
       </c>
-      <c r="G61" t="n">
-        <v>0.0515</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2024-11-28 20:21:58</t>
+      <c r="G61" s="4" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="H61" s="4" t="inlineStr">
+        <is>
+          <t>2026-01-07 06:56:00</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="4" t="inlineStr">
         <is>
           <t>PGE506</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="5" t="n">
         <v>45625.55208333334</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" s="4" t="n">
         <v>893</v>
       </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
+      <c r="E62" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4" t="n">
         <v>893</v>
       </c>
-      <c r="G62" t="n">
-        <v>0.22325</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2024-11-28 20:35:21</t>
+      <c r="G62" s="4" t="n">
+        <v>178.6</v>
+      </c>
+      <c r="H62" s="4" t="inlineStr">
+        <is>
+          <t>2026-01-15 03:12:00</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="4" t="inlineStr">
         <is>
           <t>PGE522</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="5" t="n">
         <v>45625.55208333334</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="4" t="n">
         <v>795</v>
       </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
+      <c r="E63" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4" t="n">
         <v>795</v>
       </c>
-      <c r="G63" t="n">
-        <v>0.19875</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2024-11-28 20:47:17</t>
+      <c r="G63" s="4" t="n">
+        <v>159</v>
+      </c>
+      <c r="H63" s="4" t="inlineStr">
+        <is>
+          <t>2026-01-22 03:52:00</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="4" t="inlineStr">
         <is>
           <t>PGE524</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="5" t="n">
         <v>45625.55208333334</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="4" t="n">
         <v>682</v>
       </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
+      <c r="E64" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4" t="n">
         <v>682</v>
       </c>
-      <c r="G64" t="n">
-        <v>0.1705</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2024-11-28 20:57:31</t>
+      <c r="G64" s="4" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="H64" s="4" t="inlineStr">
+        <is>
+          <t>2026-01-28 05:56:00</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="4" t="inlineStr">
         <is>
           <t>PGE527</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="5" t="n">
         <v>45625.55208333334</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" s="4" t="n">
         <v>443</v>
       </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
+      <c r="E65" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4" t="n">
         <v>443</v>
       </c>
-      <c r="G65" t="n">
-        <v>0.11075</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2024-11-29 05:04:09</t>
+      <c r="G65" s="4" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="H65" s="4" t="inlineStr">
+        <is>
+          <t>2026-02-01 08:12:00</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="4" t="inlineStr">
         <is>
           <t>PGE533</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="5" t="n">
         <v>45625.55208333334</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" s="4" t="n">
         <v>737</v>
       </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
+      <c r="E66" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4" t="n">
         <v>737</v>
       </c>
-      <c r="G66" t="n">
-        <v>0.18425</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2024-11-29 05:15:13</t>
+      <c r="G66" s="4" t="n">
+        <v>147.4</v>
+      </c>
+      <c r="H66" s="4" t="inlineStr">
+        <is>
+          <t>2026-02-07 21:06:00</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="4" t="inlineStr">
         <is>
           <t>PXP278</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="5" t="n">
         <v>45625.58541666667</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" s="4" t="n">
         <v>98</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" s="4" t="n">
         <v>4286</v>
       </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
+      <c r="E67" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4" t="n">
         <v>4286</v>
       </c>
-      <c r="G67" t="n">
-        <v>1.0715</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2024-11-29 06:19:30</t>
+      <c r="G67" s="4" t="n">
+        <v>857.2</v>
+      </c>
+      <c r="H67" s="4" t="inlineStr">
+        <is>
+          <t>2026-03-15 22:18:00</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="4" t="inlineStr">
         <is>
           <t>PKUN25</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="5" t="n">
         <v>45625.62569444445</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" s="4" t="n">
         <v>1329</v>
       </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
+      <c r="E68" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4" t="n">
         <v>1329</v>
       </c>
-      <c r="G68" t="n">
-        <v>0.33225</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2024-11-29 06:39:26</t>
+      <c r="G68" s="4" t="n">
+        <v>265.8</v>
+      </c>
+      <c r="H68" s="4" t="inlineStr">
+        <is>
+          <t>2026-03-27 08:06:00</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="4" t="inlineStr">
         <is>
           <t>PXP276</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="5" t="n">
         <v>45625.66875</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" s="4" t="n">
         <v>3117</v>
       </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
+      <c r="E69" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4" t="n">
         <v>3117</v>
       </c>
-      <c r="G69" t="n">
-        <v>0.77925</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2024-11-29 07:26:12</t>
+      <c r="G69" s="4" t="n">
+        <v>623.4</v>
+      </c>
+      <c r="H69" s="4" t="inlineStr">
+        <is>
+          <t>2026-04-22 17:00:00</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="4" t="inlineStr">
         <is>
           <t>PGO144</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="5" t="n">
         <v>45625.72083333333</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" s="4" t="n">
         <v>949</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70" s="4" t="n">
         <v>94</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70" s="4" t="n">
         <v>855</v>
       </c>
-      <c r="G70" t="n">
-        <v>0.21375</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2024-11-29 07:49:01</t>
+      <c r="G70" s="4" t="n">
+        <v>171</v>
+      </c>
+      <c r="H70" s="4" t="inlineStr">
+        <is>
+          <t>2026-04-30 04:00:00</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="4" t="inlineStr">
         <is>
           <t>PXP283</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="5" t="n">
         <v>45628.35625</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" s="4" t="n">
         <v>208</v>
       </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
+      <c r="E71" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4" t="n">
         <v>208</v>
       </c>
-      <c r="G71" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2024-11-29 07:52:08</t>
+      <c r="G71" s="4" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="H71" s="4" t="inlineStr">
+        <is>
+          <t>2026-05-02 07:16:00</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="4" t="inlineStr">
         <is>
           <t>PKUN58</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="5" t="n">
         <v>45629.33402777778</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72" s="4" t="n">
         <v>484</v>
       </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
+      <c r="E72" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4" t="n">
         <v>484</v>
       </c>
-      <c r="G72" t="n">
-        <v>0.121</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2024-11-29 07:59:24</t>
+      <c r="G72" s="4" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="H72" s="4" t="inlineStr">
+        <is>
+          <t>2026-05-06 17:44:00</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="4" t="inlineStr">
         <is>
           <t>PRA616</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="5" t="n">
         <v>45629.42916666667</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73" s="4" t="n">
         <v>335</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73" s="4" t="n">
         <v>335</v>
       </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2024-11-29 07:59:24</t>
+      <c r="F73" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4" t="inlineStr">
+        <is>
+          <t>2026-05-06 17:44:00</t>
         </is>
       </c>
     </row>
